--- a/regions/3/infrastruqtura/infrastruqtura.xlsx
+++ b/regions/3/infrastruqtura/infrastruqtura.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -593,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -605,7 +605,7 @@
     <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
@@ -620,8 +620,10 @@
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>2011</v>
@@ -656,8 +658,14 @@
       <c r="L2" s="4">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="4">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -694,8 +702,14 @@
       <c r="L3" s="9">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="9">
+        <v>100</v>
+      </c>
+      <c r="N3" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="8"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -707,14 +721,14 @@
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:14">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="30" customHeight="1">
+    <row r="6" spans="1:14" ht="30" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
@@ -729,8 +743,10 @@
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="3"/>
       <c r="B7" s="4">
         <v>2011</v>
@@ -765,8 +781,14 @@
       <c r="L7" s="4">
         <v>2021</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="4">
+        <v>2022</v>
+      </c>
+      <c r="N7" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -803,8 +825,14 @@
       <c r="L8" s="10">
         <v>71.332605677439133</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+      <c r="M8" s="10">
+        <v>75.693005973995213</v>
+      </c>
+      <c r="N8" s="10">
+        <v>86.66513906777088</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
@@ -819,8 +847,10 @@
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -832,7 +862,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1">
+    <row r="12" spans="1:14" ht="30" customHeight="1">
       <c r="A12" s="15" t="s">
         <v>9</v>
       </c>
@@ -847,8 +877,10 @@
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="4">
         <v>2011</v>
@@ -883,8 +915,14 @@
       <c r="L13" s="4">
         <v>2021</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="4">
+        <v>2022</v>
+      </c>
+      <c r="N13" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="6" t="s">
         <v>0</v>
       </c>
@@ -921,8 +959,14 @@
       <c r="L14" s="11">
         <v>47.716228697034396</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="11">
+        <v>54.545970958859989</v>
+      </c>
+      <c r="N14" s="11">
+        <v>54.696360079043899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="6" t="s">
         <v>1</v>
       </c>
@@ -959,8 +1003,14 @@
       <c r="L15" s="11">
         <v>2.8240742377885217</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="11">
+        <v>0.39360986045202312</v>
+      </c>
+      <c r="N15" s="11">
+        <v>1.2893061015396881</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="6" t="s">
         <v>2</v>
       </c>
@@ -997,8 +1047,14 @@
       <c r="L16" s="11">
         <v>30.886037446157275</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="11">
+        <v>30.731956083868514</v>
+      </c>
+      <c r="N16" s="11">
+        <v>31.430836916938592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="6" t="s">
         <v>3</v>
       </c>
@@ -1035,8 +1091,14 @@
       <c r="L17" s="11">
         <v>18.573659619019814</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="11">
+        <v>14.328463096819474</v>
+      </c>
+      <c r="N17" s="11">
+        <v>12.583496902477826</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="7" t="s">
         <v>4</v>
       </c>
@@ -1073,8 +1135,14 @@
       <c r="L18" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
+      <c r="M18" s="12">
+        <v>0</v>
+      </c>
+      <c r="N18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1">
       <c r="A19" s="16" t="s">
         <v>11</v>
       </c>
@@ -1089,8 +1157,10 @@
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -1104,11 +1174,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="A6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
